--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业流动资产.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业流动资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1575 +623,1351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.60439</v>
+        <v>256.3</v>
       </c>
       <c r="C2" t="n">
-        <v>35.50024</v>
+        <v>23.6</v>
       </c>
       <c r="D2" t="n">
-        <v>45.25453</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>808.16574</v>
+        <v>2302.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.09481</v>
+        <v>27.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>30.9</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>138.17162</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>657.7</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.60626</v>
+        <v>0.9</v>
       </c>
       <c r="L2" t="n">
-        <v>557.42233</v>
+        <v>1800.9</v>
       </c>
       <c r="M2" t="n">
-        <v>2.09943</v>
+        <v>1.9</v>
       </c>
       <c r="N2" t="n">
-        <v>209.80291</v>
+        <v>360.5</v>
       </c>
       <c r="O2" t="n">
-        <v>11.04848</v>
+        <v>20.8</v>
       </c>
       <c r="P2" t="n">
-        <v>4.59889</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.93985</v>
+        <v>194.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9724699999999999</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>20.21261</v>
+        <v>72</v>
       </c>
       <c r="T2" t="n">
-        <v>770.6059299999999</v>
+        <v>2014.8</v>
       </c>
       <c r="U2" t="n">
-        <v>149.2201</v>
+        <v>678.6</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>40.15632</v>
+        <v>49.3</v>
       </c>
       <c r="X2" t="n">
-        <v>95.8022</v>
+        <v>167.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.80356</v>
+        <v>306.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.84867</v>
+        <v>5.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.99637</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.1751</v>
+        <v>584.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.34439</v>
+        <v>21.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>81.45814</v>
+        <v>441.7</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.73746</v>
+        <v>85.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.63511</v>
+        <v>35.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.91932</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.43596</v>
+        <v>12.3</v>
       </c>
       <c r="AI2" t="n">
-        <v>40.2708</v>
+        <v>91.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30.50333</v>
+        <v>39.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.61474</v>
+        <v>0.9</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.5</v>
+        <v>299</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2</v>
+        <v>30.5</v>
       </c>
       <c r="D3" t="n">
-        <v>82.40000000000001</v>
+        <v>108.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1710.1</v>
+        <v>2696.9</v>
       </c>
       <c r="F3" t="n">
-        <v>9.199999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>36.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3</v>
+      </c>
       <c r="I3" t="n">
-        <v>393.7</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>800.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1282.9</v>
+        <v>2118.2</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>348.1</v>
+        <v>377.3</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.4</v>
+        <v>234.7</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>56.5</v>
+        <v>65.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1525.3</v>
+        <v>2361.6</v>
       </c>
       <c r="U3" t="n">
-        <v>415.6</v>
+        <v>822.4</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>46.4</v>
+        <v>50.8</v>
       </c>
       <c r="X3" t="n">
-        <v>136.6</v>
+        <v>185</v>
       </c>
       <c r="Y3" t="n">
-        <v>253.8</v>
+        <v>344</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.5</v>
+        <v>99.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.6</v>
+        <v>668.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.8</v>
+        <v>22.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>299.2</v>
+        <v>515.9</v>
       </c>
       <c r="AE3" t="n">
-        <v>51.9</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AF3" t="n">
-        <v>20.7</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AI3" t="n">
-        <v>70.8</v>
+        <v>120.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>37.1</v>
+        <v>41.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.7</v>
+        <v>353.70606</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7</v>
+        <v>35.08064</v>
       </c>
       <c r="D4" t="n">
-        <v>90.90000000000001</v>
+        <v>121.31264</v>
       </c>
       <c r="E4" t="n">
-        <v>1874.8</v>
+        <v>3137.29988</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8</v>
+        <v>100.6449</v>
       </c>
       <c r="G4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>43.56611</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.97534</v>
+      </c>
       <c r="I4" t="n">
-        <v>476.9</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1016.51063</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.42658</v>
+      </c>
       <c r="K4" t="n">
-        <v>0.6</v>
+        <v>1.61251</v>
       </c>
       <c r="L4" t="n">
-        <v>1418.3</v>
+        <v>2536.45413</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1.37828</v>
       </c>
       <c r="N4" t="n">
-        <v>326.2</v>
+        <v>421.15399</v>
       </c>
       <c r="O4" t="n">
-        <v>15.3</v>
+        <v>28.18938</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.70888</v>
       </c>
       <c r="Q4" t="n">
-        <v>196</v>
+        <v>254.29149</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.77941</v>
       </c>
       <c r="S4" t="n">
-        <v>79.40000000000001</v>
+        <v>94.14346</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.8</v>
+        <v>2740.02771</v>
       </c>
       <c r="U4" t="n">
-        <v>492.3</v>
+        <v>1044.70001</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>50.1</v>
+        <v>54.49438</v>
       </c>
       <c r="X4" t="n">
-        <v>136.9</v>
+        <v>185.85823</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.5</v>
+        <v>346.55426</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.1</v>
+        <v>10.54531</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.5</v>
+        <v>95.22976</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.7</v>
+        <v>779.26566</v>
       </c>
       <c r="AC4" t="n">
-        <v>16.2</v>
+        <v>23.89386</v>
       </c>
       <c r="AD4" t="n">
-        <v>333.8</v>
+        <v>610.76554</v>
       </c>
       <c r="AE4" t="n">
-        <v>64.40000000000001</v>
+        <v>93.78591</v>
       </c>
       <c r="AF4" t="n">
-        <v>26.3</v>
+        <v>50.82035</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>8.765650000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.6</v>
+        <v>19.50255</v>
       </c>
       <c r="AI4" t="n">
-        <v>84.59999999999999</v>
+        <v>113.50916</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37.7</v>
+        <v>48.91221</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.4</v>
+        <v>1.06598</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256.3</v>
+        <v>476.35779</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6</v>
+        <v>32.50951</v>
       </c>
       <c r="D5" t="n">
-        <v>96.09999999999999</v>
+        <v>127.73228</v>
       </c>
       <c r="E5" t="n">
-        <v>2302.1</v>
+        <v>3515.55218</v>
       </c>
       <c r="F5" t="n">
-        <v>27.1</v>
+        <v>17.26924</v>
       </c>
       <c r="G5" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>78.44696</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6245000000000001</v>
+      </c>
       <c r="I5" t="n">
-        <v>657.7</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1276.79905</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.99274</v>
+      </c>
       <c r="K5" t="n">
-        <v>0.9</v>
+        <v>0.09988</v>
       </c>
       <c r="L5" t="n">
-        <v>1800.9</v>
+        <v>2892.22261</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9</v>
+        <v>1.07352</v>
       </c>
       <c r="N5" t="n">
-        <v>360.5</v>
+        <v>322.69744</v>
       </c>
       <c r="O5" t="n">
-        <v>20.8</v>
+        <v>84.146</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>2.18282</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.5</v>
+        <v>245.00158</v>
       </c>
       <c r="R5" t="n">
-        <v>2.7</v>
+        <v>1.15437</v>
       </c>
       <c r="S5" t="n">
-        <v>72</v>
+        <v>82.98092</v>
       </c>
       <c r="T5" t="n">
-        <v>2014.8</v>
+        <v>2960.74743</v>
       </c>
       <c r="U5" t="n">
-        <v>678.6</v>
+        <v>1360.94505</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>49.3</v>
+        <v>47.71851</v>
       </c>
       <c r="X5" t="n">
-        <v>167.4</v>
+        <v>182.67141</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.7</v>
+        <v>378.32799</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.9</v>
+        <v>10.36763</v>
       </c>
       <c r="AA5" t="n">
-        <v>84</v>
+        <v>136.5777</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.3</v>
+        <v>977.8483</v>
       </c>
       <c r="AC5" t="n">
-        <v>21.4</v>
+        <v>10.32972</v>
       </c>
       <c r="AD5" t="n">
-        <v>441.7</v>
+        <v>848.30264</v>
       </c>
       <c r="AE5" t="n">
-        <v>85.5</v>
+        <v>52.4352</v>
       </c>
       <c r="AF5" t="n">
-        <v>35.7</v>
+        <v>66.78073999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.2</v>
+        <v>4.37704</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.3</v>
+        <v>11.38033</v>
       </c>
       <c r="AI5" t="n">
-        <v>91.5</v>
+        <v>153.94042</v>
       </c>
       <c r="AJ5" t="n">
-        <v>39.4</v>
+        <v>43.76479</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9</v>
+        <v>1.02082</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299</v>
+        <v>527.74018</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5</v>
+        <v>24.67434</v>
       </c>
       <c r="D6" t="n">
-        <v>108.7</v>
+        <v>115.97864</v>
       </c>
       <c r="E6" t="n">
-        <v>2696.9</v>
+        <v>3903.3</v>
       </c>
       <c r="F6" t="n">
-        <v>65.09999999999999</v>
+        <v>16.08168</v>
       </c>
       <c r="G6" t="n">
-        <v>36.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>2.73637</v>
       </c>
       <c r="I6" t="n">
-        <v>800.2</v>
+        <v>1493.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.36609</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2</v>
+        <v>0.05832</v>
       </c>
       <c r="L6" t="n">
-        <v>2118.2</v>
+        <v>3185.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>2.17751</v>
       </c>
       <c r="N6" t="n">
-        <v>377.3</v>
+        <v>338.40098</v>
       </c>
       <c r="O6" t="n">
-        <v>22.2</v>
+        <v>102.66513</v>
       </c>
       <c r="P6" t="n">
-        <v>3.9</v>
+        <v>2.34857</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.7</v>
+        <v>258.86944</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>2.5819</v>
       </c>
       <c r="S6" t="n">
-        <v>65.2</v>
+        <v>112.89819</v>
       </c>
       <c r="T6" t="n">
-        <v>2361.6</v>
+        <v>3293</v>
       </c>
       <c r="U6" t="n">
-        <v>822.4</v>
+        <v>1596.1</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>50.8</v>
+        <v>60.80301</v>
       </c>
       <c r="X6" t="n">
-        <v>185</v>
+        <v>215.00579</v>
       </c>
       <c r="Y6" t="n">
-        <v>344</v>
+        <v>458.70431</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.699999999999999</v>
+        <v>7.66962</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.2</v>
+        <v>174.8598</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.8</v>
+        <v>1024.03977</v>
       </c>
       <c r="AC6" t="n">
-        <v>22.3</v>
+        <v>8.85101</v>
       </c>
       <c r="AD6" t="n">
-        <v>515.9</v>
+        <v>895.9081200000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>79.59999999999999</v>
+        <v>49.40223</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>69.87841</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.2</v>
+        <v>5.16732</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.2</v>
+        <v>9.438459999999999</v>
       </c>
       <c r="AI6" t="n">
-        <v>120.8</v>
+        <v>154.85234</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41.5</v>
+        <v>41.66122</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9</v>
+        <v>0.58292</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.70606</v>
+        <v>503.1634</v>
       </c>
       <c r="C7" t="n">
-        <v>35.08064</v>
+        <v>25.892</v>
       </c>
       <c r="D7" t="n">
-        <v>121.31264</v>
+        <v>130.6141</v>
       </c>
       <c r="E7" t="n">
-        <v>3137.29988</v>
+        <v>4092.2269</v>
       </c>
       <c r="F7" t="n">
-        <v>100.6449</v>
+        <v>16.2788</v>
       </c>
       <c r="G7" t="n">
-        <v>43.56611</v>
+        <v>130.3064</v>
       </c>
       <c r="H7" t="n">
-        <v>1.97534</v>
+        <v>3.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>1016.51063</v>
+        <v>1645.087</v>
       </c>
       <c r="J7" t="n">
-        <v>0.42658</v>
+        <v>3.6721</v>
       </c>
       <c r="K7" t="n">
-        <v>1.61251</v>
+        <v>0.154</v>
       </c>
       <c r="L7" t="n">
-        <v>2536.45413</v>
+        <v>3358.5514</v>
       </c>
       <c r="M7" t="n">
-        <v>1.37828</v>
+        <v>1.2663</v>
       </c>
       <c r="N7" t="n">
-        <v>421.15399</v>
+        <v>318.4644</v>
       </c>
       <c r="O7" t="n">
-        <v>28.18938</v>
+        <v>108.6972</v>
       </c>
       <c r="P7" t="n">
-        <v>4.70888</v>
+        <v>2.7878</v>
       </c>
       <c r="Q7" t="n">
-        <v>254.29149</v>
+        <v>254.5755</v>
       </c>
       <c r="R7" t="n">
-        <v>1.77941</v>
+        <v>2.1466</v>
       </c>
       <c r="S7" t="n">
-        <v>94.14346</v>
+        <v>92.8871</v>
       </c>
       <c r="T7" t="n">
-        <v>2740.02771</v>
+        <v>3458.7574</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.70001</v>
+        <v>1753.784</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>54.49438</v>
+        <v>68.9782</v>
       </c>
       <c r="X7" t="n">
-        <v>185.85823</v>
+        <v>205.0899</v>
       </c>
       <c r="Y7" t="n">
-        <v>346.55426</v>
+        <v>479.1008</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.54531</v>
+        <v>9.2273</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.22976</v>
+        <v>192.1332</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.26566</v>
+        <v>1060.7434</v>
       </c>
       <c r="AC7" t="n">
-        <v>23.89386</v>
+        <v>8.494899999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>610.76554</v>
+        <v>940.4562</v>
       </c>
       <c r="AE7" t="n">
-        <v>93.78591</v>
+        <v>47.9098</v>
       </c>
       <c r="AF7" t="n">
-        <v>50.82035</v>
+        <v>63.8823</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.765650000000001</v>
+        <v>4.5178</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.50255</v>
+        <v>6.622</v>
       </c>
       <c r="AI7" t="n">
-        <v>113.50916</v>
+        <v>162.0547</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48.91221</v>
+        <v>36.0868</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.06598</v>
+        <v>0.3098</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>476.35779</v>
+        <v>587.3751999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>32.50951</v>
+        <v>43.7961</v>
       </c>
       <c r="D8" t="n">
-        <v>127.73228</v>
+        <v>115.7404</v>
       </c>
       <c r="E8" t="n">
-        <v>3515.55218</v>
+        <v>4309.2669</v>
       </c>
       <c r="F8" t="n">
-        <v>17.26924</v>
+        <v>13.3414</v>
       </c>
       <c r="G8" t="n">
-        <v>78.44696</v>
+        <v>133.5737</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6245000000000001</v>
+        <v>3.0125</v>
       </c>
       <c r="I8" t="n">
-        <v>1276.79905</v>
+        <v>1725.6216</v>
       </c>
       <c r="J8" t="n">
-        <v>0.99274</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09988</v>
-      </c>
+        <v>3.0801</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2892.22261</v>
+        <v>3472.0309</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07352</v>
+        <v>1.5827</v>
       </c>
       <c r="N8" t="n">
-        <v>322.69744</v>
+        <v>298.4079</v>
       </c>
       <c r="O8" t="n">
-        <v>84.146</v>
+        <v>158.897</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18282</v>
+        <v>2.4222</v>
       </c>
       <c r="Q8" t="n">
-        <v>245.00158</v>
+        <v>281.5362</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15437</v>
+        <v>5.0499</v>
       </c>
       <c r="S8" t="n">
-        <v>82.98092</v>
+        <v>113.9371</v>
       </c>
       <c r="T8" t="n">
-        <v>2960.74743</v>
+        <v>3588.318</v>
       </c>
       <c r="U8" t="n">
-        <v>1360.94505</v>
+        <v>1884.5184</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>47.71851</v>
+        <v>71.265</v>
       </c>
       <c r="X8" t="n">
-        <v>182.67141</v>
+        <v>226.1952</v>
       </c>
       <c r="Y8" t="n">
-        <v>378.32799</v>
+        <v>555.7006</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.36763</v>
+        <v>10.2339</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.5777</v>
+        <v>244.9264</v>
       </c>
       <c r="AB8" t="n">
-        <v>977.8483</v>
+        <v>1058.5655</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.32972</v>
+        <v>9.2561</v>
       </c>
       <c r="AD8" t="n">
-        <v>848.30264</v>
+        <v>955.9221</v>
       </c>
       <c r="AE8" t="n">
-        <v>52.4352</v>
+        <v>40.3632</v>
       </c>
       <c r="AF8" t="n">
-        <v>66.78073999999999</v>
+        <v>53.0249</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.37704</v>
+        <v>4.2726</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.38033</v>
+        <v>7.8578</v>
       </c>
       <c r="AI8" t="n">
-        <v>153.94042</v>
+        <v>174.275</v>
       </c>
       <c r="AJ8" t="n">
-        <v>43.76479</v>
+        <v>30.7933</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.02082</v>
+        <v>0.2674</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.74018</v>
+        <v>728.093</v>
       </c>
       <c r="C9" t="n">
-        <v>24.67434</v>
+        <v>43.988</v>
       </c>
       <c r="D9" t="n">
-        <v>115.97864</v>
+        <v>108.372</v>
       </c>
       <c r="E9" t="n">
-        <v>3903.3</v>
+        <v>4881.0356</v>
       </c>
       <c r="F9" t="n">
-        <v>16.08168</v>
+        <v>7.441</v>
       </c>
       <c r="G9" t="n">
-        <v>82.59999999999999</v>
+        <v>163.637</v>
       </c>
       <c r="H9" t="n">
-        <v>2.73637</v>
+        <v>3.119</v>
       </c>
       <c r="I9" t="n">
-        <v>1493.5</v>
+        <v>2050.368</v>
       </c>
       <c r="J9" t="n">
-        <v>0.36609</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05832</v>
-      </c>
+        <v>3.606</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3185.8</v>
+        <v>4074.987</v>
       </c>
       <c r="M9" t="n">
-        <v>2.17751</v>
+        <v>0.876</v>
       </c>
       <c r="N9" t="n">
-        <v>338.40098</v>
+        <v>298.688</v>
       </c>
       <c r="O9" t="n">
-        <v>102.66513</v>
+        <v>205.424</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34857</v>
+        <v>2.396</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.86944</v>
+        <v>271.707</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5819</v>
+        <v>2.366</v>
       </c>
       <c r="S9" t="n">
-        <v>112.89819</v>
+        <v>113.863</v>
       </c>
       <c r="T9" t="n">
-        <v>3293</v>
+        <v>3989.306</v>
       </c>
       <c r="U9" t="n">
-        <v>1596.1</v>
+        <v>2255.792</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>60.80301</v>
+        <v>44.423</v>
       </c>
       <c r="X9" t="n">
-        <v>215.00579</v>
+        <v>222.533</v>
       </c>
       <c r="Y9" t="n">
-        <v>458.70431</v>
+        <v>534.341</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.66962</v>
+        <v>10.241</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.8598</v>
+        <v>253.539</v>
       </c>
       <c r="AB9" t="n">
-        <v>1024.03977</v>
+        <v>1284.231</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.85101</v>
+        <v>10.128</v>
       </c>
       <c r="AD9" t="n">
-        <v>895.9081200000001</v>
+        <v>1185.584</v>
       </c>
       <c r="AE9" t="n">
-        <v>49.40223</v>
+        <v>39.796</v>
       </c>
       <c r="AF9" t="n">
-        <v>69.87841</v>
+        <v>48.723</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.16732</v>
+        <v>3.441</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.438459999999999</v>
+        <v>7.853</v>
       </c>
       <c r="AI9" t="n">
-        <v>154.85234</v>
+        <v>189.003</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41.66122</v>
+        <v>28.538</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.58292</v>
+        <v>0.135</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.1634</v>
+        <v>780.7</v>
       </c>
       <c r="C10" t="n">
-        <v>25.892</v>
+        <v>28.6</v>
       </c>
       <c r="D10" t="n">
-        <v>130.6141</v>
+        <v>100.5</v>
       </c>
       <c r="E10" t="n">
-        <v>4092.2269</v>
+        <v>5485.1</v>
       </c>
       <c r="F10" t="n">
-        <v>16.2788</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3064</v>
+        <v>150.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0358</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1645.087</v>
+        <v>2121.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6721</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.154</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3358.5514</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.2663</v>
-      </c>
+        <v>4469.6</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>318.4644</v>
+        <v>280.7</v>
       </c>
       <c r="O10" t="n">
-        <v>108.6972</v>
+        <v>209.8</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7878</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>254.5755</v>
+        <v>427.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1466</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>92.8871</v>
+        <v>294</v>
       </c>
       <c r="T10" t="n">
-        <v>3458.7574</v>
+        <v>4508.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1753.784</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>2331.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>44.9</v>
+      </c>
       <c r="W10" t="n">
-        <v>68.9782</v>
+        <v>47.7</v>
       </c>
       <c r="X10" t="n">
-        <v>205.0899</v>
+        <v>274.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.1008</v>
+        <v>587.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.2273</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>192.1332</v>
+        <v>255.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>1060.7434</v>
+        <v>1588.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.494899999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>940.4562</v>
+        <v>1504.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>47.9098</v>
+        <v>37.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>63.8823</v>
+        <v>36.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.5178</v>
+        <v>3.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.622</v>
+        <v>6.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>162.0547</v>
+        <v>232.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36.0868</v>
+        <v>26.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.3098</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587.3751999999999</v>
+        <v>1035.2751</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7961</v>
+        <v>27.539</v>
       </c>
       <c r="D11" t="n">
-        <v>115.7404</v>
+        <v>138.2762</v>
       </c>
       <c r="E11" t="n">
-        <v>4309.2669</v>
+        <v>6176.3785</v>
       </c>
       <c r="F11" t="n">
-        <v>13.3414</v>
+        <v>0.2465</v>
       </c>
       <c r="G11" t="n">
-        <v>133.5737</v>
+        <v>237.6203</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0125</v>
+        <v>1.8135</v>
       </c>
       <c r="I11" t="n">
-        <v>1725.6216</v>
+        <v>2117.1479</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0801</v>
+        <v>0.414</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3472.0309</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.5827</v>
-      </c>
+        <v>4929.5234</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>298.4079</v>
+        <v>275.0633</v>
       </c>
       <c r="O11" t="n">
-        <v>158.897</v>
+        <v>261.1712</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4222</v>
+        <v>2.5887</v>
       </c>
       <c r="Q11" t="n">
-        <v>281.5362</v>
+        <v>604.4304</v>
       </c>
       <c r="R11" t="n">
-        <v>5.0499</v>
+        <v>21.782</v>
       </c>
       <c r="S11" t="n">
-        <v>113.9371</v>
+        <v>415.0198</v>
       </c>
       <c r="T11" t="n">
-        <v>3588.318</v>
+        <v>4870.2086</v>
       </c>
       <c r="U11" t="n">
-        <v>1884.5184</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>2378.319</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30.8487</v>
+      </c>
       <c r="W11" t="n">
-        <v>71.265</v>
+        <v>39.0245</v>
       </c>
       <c r="X11" t="n">
-        <v>226.1952</v>
+        <v>292.2994</v>
       </c>
       <c r="Y11" t="n">
-        <v>555.7006</v>
+        <v>642.4252</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.2339</v>
+        <v>3.7635</v>
       </c>
       <c r="AA11" t="n">
-        <v>244.9264</v>
+        <v>306.9235</v>
       </c>
       <c r="AB11" t="n">
-        <v>1058.5655</v>
+        <v>1920.3989</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.2561</v>
+        <v>9.9071</v>
       </c>
       <c r="AD11" t="n">
-        <v>955.9221</v>
+        <v>1808.2261</v>
       </c>
       <c r="AE11" t="n">
-        <v>40.3632</v>
+        <v>37.3226</v>
       </c>
       <c r="AF11" t="n">
-        <v>53.0249</v>
+        <v>64.94370000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.2726</v>
+        <v>3.5258</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.8578</v>
+        <v>5.2523</v>
       </c>
       <c r="AI11" t="n">
-        <v>174.275</v>
+        <v>321.2678</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30.7933</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2674</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>25.4502</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>2.4263</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.093</v>
+        <v>1211.3056</v>
       </c>
       <c r="C12" t="n">
-        <v>43.988</v>
+        <v>23.5218</v>
       </c>
       <c r="D12" t="n">
-        <v>108.372</v>
+        <v>276.8024</v>
       </c>
       <c r="E12" t="n">
-        <v>4881.0356</v>
+        <v>6801.8049</v>
       </c>
       <c r="F12" t="n">
-        <v>7.441</v>
+        <v>0.7923</v>
       </c>
       <c r="G12" t="n">
-        <v>163.637</v>
+        <v>226.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.119</v>
+        <v>1.721</v>
       </c>
       <c r="I12" t="n">
-        <v>2050.368</v>
+        <v>2273.1928</v>
       </c>
       <c r="J12" t="n">
-        <v>3.606</v>
+        <v>1.3615</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4074.987</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.876</v>
-      </c>
+        <v>5455.269</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>298.688</v>
+        <v>289.1721</v>
       </c>
       <c r="O12" t="n">
-        <v>205.424</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.396</v>
-      </c>
+        <v>285.135</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>271.707</v>
+        <v>724.9847</v>
       </c>
       <c r="R12" t="n">
-        <v>2.366</v>
+        <v>8.2456</v>
       </c>
       <c r="S12" t="n">
-        <v>113.863</v>
+        <v>414.6941</v>
       </c>
       <c r="T12" t="n">
-        <v>3989.306</v>
+        <v>5335.2669</v>
       </c>
       <c r="U12" t="n">
-        <v>2255.792</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>2558.3278</v>
+      </c>
+      <c r="V12" t="n">
+        <v>23.9953</v>
+      </c>
       <c r="W12" t="n">
-        <v>44.423</v>
+        <v>36.8867</v>
       </c>
       <c r="X12" t="n">
-        <v>222.533</v>
+        <v>291.8124</v>
       </c>
       <c r="Y12" t="n">
-        <v>534.341</v>
+        <v>621.5517</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.241</v>
+        <v>1.9635</v>
       </c>
       <c r="AA12" t="n">
-        <v>253.539</v>
+        <v>289.5273</v>
       </c>
       <c r="AB12" t="n">
-        <v>1284.231</v>
+        <v>2314.3912</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.128</v>
+        <v>10.0809</v>
       </c>
       <c r="AD12" t="n">
-        <v>1185.584</v>
+        <v>2230.6962</v>
       </c>
       <c r="AE12" t="n">
-        <v>39.796</v>
+        <v>45.0488</v>
       </c>
       <c r="AF12" t="n">
-        <v>48.723</v>
+        <v>28.5655</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.441</v>
+        <v>3.4447</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.853</v>
+        <v>6.1419</v>
       </c>
       <c r="AI12" t="n">
-        <v>189.003</v>
+        <v>263.1721</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28.538</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>19.8275</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>4.6172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.7</v>
+        <v>1231.3541</v>
       </c>
       <c r="C13" t="n">
-        <v>28.6</v>
+        <v>29.4993</v>
       </c>
       <c r="D13" t="n">
-        <v>100.5</v>
+        <v>276.7481</v>
       </c>
       <c r="E13" t="n">
-        <v>5485.1</v>
+        <v>6567.8339</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>0.4075</v>
       </c>
       <c r="G13" t="n">
-        <v>150.7</v>
+        <v>141.6366</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>14.9309</v>
       </c>
       <c r="I13" t="n">
-        <v>2121.6</v>
+        <v>2167.445</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>3.3492</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4469.6</v>
+        <v>5314.6774</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>280.7</v>
+        <v>277.9967</v>
       </c>
       <c r="O13" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
+        <v>304.402</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>427.7</v>
+        <v>590.2196</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>1.2712</v>
       </c>
       <c r="S13" t="n">
-        <v>294</v>
+        <v>267.7702</v>
       </c>
       <c r="T13" t="n">
-        <v>4508.8</v>
+        <v>5161.921</v>
       </c>
       <c r="U13" t="n">
-        <v>2331.4</v>
+        <v>2471.847</v>
       </c>
       <c r="V13" t="n">
-        <v>44.9</v>
+        <v>28.9262</v>
       </c>
       <c r="W13" t="n">
-        <v>47.7</v>
+        <v>40.2631</v>
       </c>
       <c r="X13" t="n">
-        <v>274.1</v>
+        <v>304.2501</v>
       </c>
       <c r="Y13" t="n">
-        <v>587.8</v>
+        <v>662.9367</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.800000000000001</v>
+        <v>17.4705</v>
       </c>
       <c r="AA13" t="n">
-        <v>255.7</v>
+        <v>297.6038</v>
       </c>
       <c r="AB13" t="n">
-        <v>1588.1</v>
+        <v>2396.0203</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9801</v>
       </c>
       <c r="AD13" t="n">
-        <v>1504.9</v>
+        <v>2309.7635</v>
       </c>
       <c r="AE13" t="n">
-        <v>37.2</v>
+        <v>50.1019</v>
       </c>
       <c r="AF13" t="n">
-        <v>36.1</v>
+        <v>26.1749</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.5</v>
+        <v>1.5108</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.3</v>
+        <v>5.695</v>
       </c>
       <c r="AI13" t="n">
-        <v>232.2</v>
+        <v>142.0984</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.1</v>
-      </c>
+        <v>19.1017</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1035.2751</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.539</v>
-      </c>
-      <c r="D14" t="n">
-        <v>138.2762</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6176.3785</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.2465</v>
-      </c>
-      <c r="G14" t="n">
-        <v>237.6203</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.8135</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2117.1479</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>4929.5234</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>275.0633</v>
-      </c>
-      <c r="O14" t="n">
-        <v>261.1712</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5887</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>604.4304</v>
-      </c>
-      <c r="R14" t="n">
-        <v>21.782</v>
-      </c>
-      <c r="S14" t="n">
-        <v>415.0198</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4870.2086</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2378.319</v>
-      </c>
-      <c r="V14" t="n">
-        <v>30.8487</v>
-      </c>
-      <c r="W14" t="n">
-        <v>39.0245</v>
-      </c>
-      <c r="X14" t="n">
-        <v>292.2994</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>642.4252</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.7635</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>306.9235</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1920.3989</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.9071</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1808.2261</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>37.3226</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>64.94370000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.5258</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5.2523</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>321.2678</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>25.4502</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>2.4263</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1211.3056</v>
-      </c>
-      <c r="C15" t="n">
-        <v>23.5218</v>
-      </c>
-      <c r="D15" t="n">
-        <v>276.8024</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6801.8049</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7923</v>
-      </c>
-      <c r="G15" t="n">
-        <v>226.62</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2273.1928</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.3615</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>5455.269</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>289.1721</v>
-      </c>
-      <c r="O15" t="n">
-        <v>285.135</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>724.9847</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8.2456</v>
-      </c>
-      <c r="S15" t="n">
-        <v>414.6941</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5335.2669</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2558.3278</v>
-      </c>
-      <c r="V15" t="n">
-        <v>23.9953</v>
-      </c>
-      <c r="W15" t="n">
-        <v>36.8867</v>
-      </c>
-      <c r="X15" t="n">
-        <v>291.8124</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>621.5517</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.9635</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>289.5273</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2314.3912</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.0809</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2230.6962</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>45.0488</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>28.5655</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.4447</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.1419</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>263.1721</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19.8275</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>4.6172</v>
+        <v>3.9959</v>
       </c>
     </row>
   </sheetData>
